--- a/table/env_permanova.xlsx
+++ b/table/env_permanova.xlsx
@@ -399,7 +399,7 @@
         <v>2.430890858321245</v>
       </c>
       <c r="E2">
-        <v>0.03591</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>0.6918426229579175</v>
       </c>
       <c r="E2">
-        <v>99999</v>
+        <v>9999</v>
       </c>
       <c r="F2">
-        <v>0.4296</v>
+        <v>0.4263</v>
       </c>
     </row>
     <row r="3">
